--- a/biology/Zoologie/Bryophilinae/Bryophilinae.xlsx
+++ b/biology/Zoologie/Bryophilinae/Bryophilinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryophilinae sont une sous-famille de lépidoptères nocturnes de la famille des Noctuidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 mars 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 mars 2018) :
 genre Bryophila
 Bryophila domestica
 Bryophila ereptricula
@@ -536,10 +550,44 @@
 Stenoloba jankowskii
 genre Victrix
 Victrix umovii
-Selon ITIS      (25 mars 2018)[2] :
-genre Cryphia Hübner, 1818
-Genres rencontrés en Europe
-Selon Fauna Europaea                                      (23 février 2014)[3] :
+Selon ITIS      (25 mars 2018) :
+genre Cryphia Hübner, 1818</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bryophilinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryophilinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (23 février 2014) :
 Bryophila Treitschke, 1825
 Cryphia Hübner, 1818
 Nyctobrya Boursin, 1957
